--- a/SuppXLS/Scen_ELC_IMP.xlsx
+++ b/SuppXLS/Scen_ELC_IMP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Shell_168\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_FULL\SuppXLS\Policy_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF900CCA-4CD7-4408-A257-135AA65F7C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F21E3-1E5A-4A3C-B1D3-8540D5B9DCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Year</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>2025,2030,2035,2040,2045,2050</t>
   </si>
 </sst>
 </file>
@@ -4417,38 +4420,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="7" width="22.42578125" customWidth="1"/>
+    <col min="2" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:8">
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -4467,17 +4467,19 @@
       <c r="G5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8">
-        <v>2030</v>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
